--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1157987.540218195</v>
+        <v>1151900.298912144</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1042617.113969143</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10863960.88892694</v>
+        <v>11120393.86061059</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>208.2474868886324</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>213.0787404579729</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -834,7 +834,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>65.62473928264339</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>171.1971464172148</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>130.2305510842729</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>230.4013291202</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>56.60860467372822</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>71.13879001478173</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1186,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>29.76498982117775</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>108.9812949757285</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>103.74696439748</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,16 +1299,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>192.1675620474802</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1372,10 +1372,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>93.45832099395224</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>114.2656173771021</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>164.0001714587653</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>21.27864063894987</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.09581973348992</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>109.8058856274581</v>
       </c>
       <c r="I19" t="n">
-        <v>38.21875275158312</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>176.76214411214</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>132.6315337216692</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3195,13 +3195,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>72.97607332171654</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>45.17596778974989</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3565,10 +3565,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>40.6225301034174</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>174.3163612303118</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1785.600156360221</v>
+        <v>1078.689549231437</v>
       </c>
       <c r="C2" t="n">
-        <v>1416.63763941981</v>
+        <v>709.7270322910251</v>
       </c>
       <c r="D2" t="n">
-        <v>1058.371940813059</v>
+        <v>351.4613336842746</v>
       </c>
       <c r="E2" t="n">
-        <v>672.5836882148151</v>
+        <v>351.4613336842746</v>
       </c>
       <c r="F2" t="n">
-        <v>261.5977834252075</v>
+        <v>344.5158329350712</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>332.8514866997641</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X2" t="n">
-        <v>2562.339328400155</v>
+        <v>1855.42872127137</v>
       </c>
       <c r="Y2" t="n">
-        <v>2172.199996424343</v>
+        <v>1465.289389295559</v>
       </c>
     </row>
     <row r="3">
@@ -4397,34 +4397,34 @@
         <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100997</v>
+        <v>870.329241545892</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>2015.115393042426</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>981.8280128167645</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>812.8918298888576</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>662.7751904765219</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941287</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962184</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.946350312927</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>981.8280128167645</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>981.8280128167645</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>981.8280128167645</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X4" t="n">
-        <v>981.8280128167645</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y4" t="n">
-        <v>981.8280128167645</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2057.32755894284</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="C5" t="n">
-        <v>1688.365042002428</v>
+        <v>1131.265000636709</v>
       </c>
       <c r="D5" t="n">
-        <v>1330.099343395678</v>
+        <v>772.9993020299587</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4564,19 +4564,19 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X5" t="n">
-        <v>2188.873570139075</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="Y5" t="n">
-        <v>2188.873570139075</v>
+        <v>1500.227517577121</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>599.4122767260735</v>
+        <v>932.4978103100999</v>
       </c>
       <c r="M6" t="n">
-        <v>1233.591260505112</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O6" t="n">
         <v>2199.840679460312</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1314.06264251329</v>
+        <v>427.4800176695874</v>
       </c>
       <c r="C7" t="n">
-        <v>1145.126459585383</v>
+        <v>258.5438347416805</v>
       </c>
       <c r="D7" t="n">
-        <v>1145.126459585383</v>
+        <v>108.4271953293448</v>
       </c>
       <c r="E7" t="n">
-        <v>1145.126459585383</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>1145.126459585383</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>977.1399948936613</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>977.1399948936613</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>977.1399948936613</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>1002.60916787878</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>2490.48196474886</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>2267.503483943596</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1978.385146447433</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>1723.700658241547</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="W7" t="n">
-        <v>1723.700658241547</v>
+        <v>1057.910612541375</v>
       </c>
       <c r="X7" t="n">
-        <v>1495.711107343529</v>
+        <v>829.9210616433572</v>
       </c>
       <c r="Y7" t="n">
-        <v>1495.711107343529</v>
+        <v>609.1284824998271</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
         <v>1617.939223126803</v>
@@ -4804,10 +4804,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2394.678395166736</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X8" t="n">
-        <v>2394.678395166736</v>
+        <v>2841.849394875187</v>
       </c>
       <c r="Y8" t="n">
-        <v>2004.539063190924</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>678.6720730524786</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>509.7358901245717</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>359.619250712236</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218343</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="V10" t="n">
-        <v>1293.676735765777</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W10" t="n">
-        <v>1004.259565728817</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1004.259565728817</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>783.4669865852867</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1712.341567565138</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1617.939223126803</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>3215.315153136266</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3215.315153136266</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>2862.546497866152</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>2489.080739605072</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2098.94140762926</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811095</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999825</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387314</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332758</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601609</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927789</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031484</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158141</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125858</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619338</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431609</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501178</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>1837.464090846021</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1837.464090846021</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1837.464090846021</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1837.464090846021</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1934.208022973022</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1934.208022973022</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1575.942324366272</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1190.154071768027</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>779.1681669784198</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>3304.112245206191</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>3304.112245206191</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>3050.581768480028</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3050.581768480028</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.813113209913</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>2324.347354948834</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>1934.208022973022</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158128</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>944.7237329438971</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>775.7875500159902</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>625.6709106036544</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>477.7578170212613</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279955</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764916</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760407</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581906</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>1864.571497852645</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>1864.571497852645</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1864.571497852645</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U16" t="n">
-        <v>1864.571497852645</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>1864.571497852645</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1575.154327815684</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>1347.164776917667</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>1126.372197774137</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5597,22 +5597,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1055.185257670615</v>
+        <v>985.7836617409695</v>
       </c>
       <c r="C19" t="n">
-        <v>886.249074742708</v>
+        <v>816.8474788130626</v>
       </c>
       <c r="D19" t="n">
-        <v>736.1324353303722</v>
+        <v>666.7308394007268</v>
       </c>
       <c r="E19" t="n">
-        <v>588.2193417479791</v>
+        <v>518.8177458183337</v>
       </c>
       <c r="F19" t="n">
-        <v>441.3293942500687</v>
+        <v>371.9277983204233</v>
       </c>
       <c r="G19" t="n">
-        <v>274.1332949649487</v>
+        <v>204.7316990353033</v>
       </c>
       <c r="H19" t="n">
-        <v>132.4214638071468</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V19" t="n">
-        <v>1975.033022579363</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W19" t="n">
-        <v>1685.615852542402</v>
+        <v>1616.214256612757</v>
       </c>
       <c r="X19" t="n">
-        <v>1457.626301644385</v>
+        <v>1388.224705714739</v>
       </c>
       <c r="Y19" t="n">
-        <v>1236.833722500854</v>
+        <v>1167.432126571209</v>
       </c>
     </row>
     <row r="20">
@@ -5734,46 +5734,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.537229081858</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153951</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741615</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159222</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305899</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>4440.932614305899</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>4440.932614305899</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>4262.384993990606</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>3972.967823953645</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>3744.978273055628</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912098</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6317,16 +6317,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3093.254426444652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>2924.318243516745</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>2774.20160410441</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>2626.288510522017</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>2479.398563024106</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024106</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4556.861906215089</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4267.786679559287</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>4013.1021913534</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3723.68502131644</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3495.695470418422</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3274.902891274892</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,7 +6460,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6469,13 +6469,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6548,19 +6548,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6682,22 +6682,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6779,22 +6779,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998286</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>334.7259677085632</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7028,16 +7028,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7213,7 +7213,7 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591809</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,28 +7402,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7499,16 +7499,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8060,22 +8060,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621886</v>
+        <v>15.64270034434986</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>186.5911984019046</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8300,16 +8300,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>6.454437538929881</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>186.5911984019039</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23260,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>271.8145707770553</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>172.2573809594889</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>54.58448189332952</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>87.90912114922594</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>26.8363329365574</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>30.48882721876581</v>
       </c>
       <c r="I19" t="n">
-        <v>43.04708356698241</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>75.37549921168795</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>84.77391660561906</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25083,13 +25083,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>72.4449747012147</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>211.5151132204106</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>44.26829212178296</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>809272.454126824</v>
+        <v>956326.5261809175</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>809272.4541268239</v>
+        <v>956326.5261809175</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>956326.5261809176</v>
+        <v>956326.5261809175</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>956326.5261809176</v>
+        <v>956326.5261809175</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>956326.5261809176</v>
+        <v>956326.5261809174</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>956326.5261809175</v>
+        <v>956326.5261809174</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>956326.5261809176</v>
+        <v>956326.5261809174</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>956326.5261809176</v>
+        <v>956326.5261809174</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>956326.5261809175</v>
+        <v>956326.5261809174</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>956326.5261809176</v>
+        <v>956326.5261809174</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>956326.5261809175</v>
+        <v>956326.5261809174</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
+        <v>472099.0176719629</v>
+      </c>
+      <c r="D2" t="n">
         <v>472099.0176719631</v>
       </c>
-      <c r="D2" t="n">
-        <v>472099.0176719632</v>
-      </c>
       <c r="E2" t="n">
-        <v>392146.663816559</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="F2" t="n">
-        <v>392146.6638165591</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="G2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="H2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="I2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="J2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="K2" t="n">
         <v>464109.2948217536</v>
       </c>
-      <c r="K2" t="n">
-        <v>464109.2948217537</v>
-      </c>
       <c r="L2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217535</v>
       </c>
       <c r="M2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="N2" t="n">
         <v>464109.2948217537</v>
@@ -26368,19 +26368,19 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>309843.0334598197</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,16 +26395,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.9700081908</v>
+        <v>48293.97000819077</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>82135.83059545133</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309554</v>
+        <v>87914.29116309555</v>
       </c>
       <c r="E4" t="n">
-        <v>8550.515172066862</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8550.515172066862</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744282</v>
@@ -26472,16 +26472,16 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139331</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-871112.6753207841</v>
+        <v>-871112.6753207843</v>
       </c>
       <c r="C6" t="n">
-        <v>243639.1082551353</v>
+        <v>243639.1082551348</v>
       </c>
       <c r="D6" t="n">
-        <v>83623.6455071363</v>
+        <v>83623.64550713651</v>
       </c>
       <c r="E6" t="n">
-        <v>309289.8080830988</v>
+        <v>28499.66754439027</v>
       </c>
       <c r="F6" t="n">
-        <v>309289.8080830988</v>
+        <v>353912.1293517452</v>
       </c>
       <c r="G6" t="n">
-        <v>44416.47514628251</v>
+        <v>353912.1293517454</v>
       </c>
       <c r="H6" t="n">
-        <v>354259.5086061022</v>
+        <v>353912.1293517453</v>
       </c>
       <c r="I6" t="n">
-        <v>354259.5086061022</v>
+        <v>353912.1293517452</v>
       </c>
       <c r="J6" t="n">
-        <v>186654.3307961196</v>
+        <v>186306.9515417628</v>
       </c>
       <c r="K6" t="n">
-        <v>354259.5086061023</v>
+        <v>353912.1293517452</v>
       </c>
       <c r="L6" t="n">
-        <v>305965.5385979115</v>
+        <v>305618.1593435543</v>
       </c>
       <c r="M6" t="n">
-        <v>354259.5086061023</v>
+        <v>268857.1014162335</v>
       </c>
       <c r="N6" t="n">
-        <v>354259.5086061023</v>
+        <v>353912.1293517453</v>
       </c>
       <c r="O6" t="n">
-        <v>272123.6780106509</v>
+        <v>353912.1293517453</v>
       </c>
       <c r="P6" t="n">
-        <v>354259.5086061023</v>
+        <v>353912.1293517453</v>
       </c>
     </row>
   </sheetData>
@@ -26740,16 +26740,16 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26962,19 +26962,19 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>278.1987997483752</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>341.3068326973556</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27041,16 +27041,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973556</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973556</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>203.3002158843216</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>87.93981210443249</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>155.1239567145685</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>115.3258519193762</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>252.5032905792077</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,13 +27624,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>151.5290409520617</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27779,19 +27779,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>89.82535797284095</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27824,25 +27824,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>123.5236703469558</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>319.4759788962352</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>277.2566436803251</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>76.08501578445728</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,16 +28019,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,16 +28067,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>94.0442761581327</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>378.512347035315</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32317,10 +32317,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,13 +32329,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32554,7 +32554,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32563,16 +32563,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>137.7376326175082</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,7 +33049,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33268,22 +33268,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33499,7 +33499,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>543.0832917018711</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33748,19 +33748,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>750.6021172789107</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34219,19 +34219,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>403.8524967138027</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34780,22 +34780,22 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000387</v>
+        <v>313.3230609822</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>436.2707275254369</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308545</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>304.13479817678</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000387</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>522.015880398027</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>240.670908060956</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789368</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,13 +35977,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36211,16 +36211,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>6.39592053417488</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37396,19 +37396,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>619.2604051955774</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37867,19 +37867,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>272.5107846304694</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1151900.298912144</v>
+        <v>1155055.218254366</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>1042617.113969141</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11120393.86061059</v>
+        <v>10863960.88892694</v>
       </c>
     </row>
     <row r="11">
@@ -661,22 +661,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>283.2754214350404</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>213.0787404579729</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -715,7 +715,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>230.4013291202</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>154.7950634777083</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>56.60860467372822</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172151</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>109.3296738389821</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>108.9812949757285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>192.1675620474802</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>136.5125514002899</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>74.75769145492424</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>164.0001714587653</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1612,19 +1612,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>143.4939106547684</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>97.27989568773832</v>
       </c>
       <c r="T16" t="n">
-        <v>107.4021082756239</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="18">
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740352</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>109.8058856274581</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>36.43062059490504</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712588</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>73.98898794535489</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2845,7 +2845,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>23.10998325717174</v>
+        <v>24.8326660635311</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2964,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>72.97607332171654</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756243</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>83.06560892428168</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -4042,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1078.689549231437</v>
+        <v>1588.713578732508</v>
       </c>
       <c r="C2" t="n">
-        <v>709.7270322910251</v>
+        <v>1588.713578732508</v>
       </c>
       <c r="D2" t="n">
-        <v>351.4613336842746</v>
+        <v>1230.447880125757</v>
       </c>
       <c r="E2" t="n">
-        <v>351.4613336842746</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F2" t="n">
-        <v>344.5158329350712</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>332.8514866997641</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
         <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="W2" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="X2" t="n">
-        <v>1855.42872127137</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="Y2" t="n">
-        <v>1465.289389295559</v>
+        <v>1975.313418796629</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500113</v>
@@ -4415,19 +4415,19 @@
         <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>870.329241545892</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M3" t="n">
-        <v>1233.591260505112</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4479,16 +4479,16 @@
         <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1500.227517577121</v>
+        <v>993.7429799877386</v>
       </c>
       <c r="C5" t="n">
-        <v>1131.265000636709</v>
+        <v>993.7429799877386</v>
       </c>
       <c r="D5" t="n">
-        <v>772.9993020299587</v>
+        <v>993.7429799877386</v>
       </c>
       <c r="E5" t="n">
-        <v>540.2706867570294</v>
+        <v>993.7429799877386</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674217</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816075</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190806</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847235</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="W5" t="n">
-        <v>1500.227517577121</v>
+        <v>1753.80857831294</v>
       </c>
       <c r="X5" t="n">
-        <v>1500.227517577121</v>
+        <v>1380.34282005186</v>
       </c>
       <c r="Y5" t="n">
-        <v>1500.227517577121</v>
+        <v>1380.34282005186</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>932.4978103100999</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M6" t="n">
-        <v>1295.75982926932</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1683.044957866265</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>427.4800176695874</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>258.5438347416805</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>108.4271953293448</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800311</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4758,19 +4758,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1057.910612541375</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>829.9210616433572</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>609.1284824998271</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,52 +4804,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136266</v>
+        <v>2531.483610522582</v>
       </c>
       <c r="X8" t="n">
-        <v>2841.849394875187</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2158.017852261502</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4995,10 +4995,10 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1733.185899555685</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1478.501411349798</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
         <v>1478.501411349798</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>1405.526882613612</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>2535.03470992366</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>1792.126722677734</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>142.0249360836221</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>142.0249360836221</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>142.0249360836221</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>590.8070661251695</v>
       </c>
       <c r="X13" t="n">
-        <v>1363.885660588917</v>
+        <v>362.8175152271522</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>142.0249360836221</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1012.316163281157</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075806</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>2531.483610522582</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>1739.201569949316</v>
       </c>
       <c r="T16" t="n">
-        <v>2338.476105524075</v>
+        <v>1517.434954518842</v>
       </c>
       <c r="U16" t="n">
-        <v>2049.400878868273</v>
+        <v>1228.332087644485</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.716390662386</v>
+        <v>973.6475994385985</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>684.2304294016378</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>456.2408785036205</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="17">
@@ -5497,67 +5497,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5606,7 +5606,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>985.7836617409695</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>816.8474788130626</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D19" t="n">
-        <v>666.7308394007268</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E19" t="n">
-        <v>518.8177458183337</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>371.9277983204233</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>204.7316990353033</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1616.214256612757</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1388.224705714739</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1167.432126571209</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,70 +5731,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,19 +5977,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6007,31 +6007,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>801.6918836311994</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7557007032925</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>482.6390612909568</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="26">
@@ -6217,19 +6217,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6244,13 +6244,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6457,40 +6457,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,55 +6597,55 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
         <v>2264.108249235165</v>
@@ -6663,10 +6663,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6682,28 +6682,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,22 +6712,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>801.6918836311989</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>632.7557007032921</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>482.6390612909563</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>334.7259677085632</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6925,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="38">
@@ -7168,28 +7168,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7213,10 +7213,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="41">
@@ -7417,13 +7417,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7432,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7639,28 +7639,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7690,7 +7690,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7788,16 +7788,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8063,13 +8063,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>15.64270034434986</v>
+        <v>54.95314511566528</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154991</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>186.5911984019039</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>228.7603403707176</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>71.67627119164493</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>54.58448189332952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23500,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>211.1891309659145</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>92.48912964370358</v>
       </c>
       <c r="T16" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>45.44677382459267</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>30.48882721876581</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038577</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>72.44497470121428</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>125.5054897610406</v>
+        <v>123.7828069546813</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>72.4449747012147</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>62.35543909864957</v>
+        <v>136.2749052347514</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>956326.5261809175</v>
+        <v>809272.4541268239</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>956326.5261809175</v>
+        <v>809272.4541268239</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>956326.5261809175</v>
+        <v>956326.5261809174</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>956326.5261809174</v>
+        <v>956326.5261809175</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>956326.5261809174</v>
+        <v>956326.5261809175</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>956326.5261809174</v>
+        <v>956326.5261809175</v>
       </c>
     </row>
     <row r="15">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.0176719632</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719632</v>
       </c>
       <c r="E2" t="n">
-        <v>464109.2948217536</v>
+        <v>392146.663816559</v>
       </c>
       <c r="F2" t="n">
-        <v>464109.2948217536</v>
+        <v>392146.663816559</v>
       </c>
       <c r="G2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="H2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="I2" t="n">
         <v>464109.2948217536</v>
@@ -26340,10 +26340,10 @@
         <v>464109.2948217537</v>
       </c>
       <c r="K2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
-        <v>464109.2948217535</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="M2" t="n">
         <v>464109.2948217536</v>
@@ -26368,19 +26368,19 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>1.82672692972119e-10</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>309843.03345982</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,16 +26395,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>48293.97000819083</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>82135.83059545117</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="C4" t="n">
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309555</v>
+        <v>87914.29116309554</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744282</v>
+        <v>8550.515172066862</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744282</v>
+        <v>8550.515172066862</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="I4" t="n">
         <v>8727.256391744282</v>
@@ -26447,7 +26447,7 @@
         <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="M4" t="n">
         <v>8727.256391744282</v>
@@ -26472,16 +26472,16 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-871112.6753207843</v>
+        <v>-871112.6753207841</v>
       </c>
       <c r="C6" t="n">
-        <v>243639.1082551348</v>
+        <v>243639.1082551353</v>
       </c>
       <c r="D6" t="n">
-        <v>83623.64550713651</v>
+        <v>83623.64550713642</v>
       </c>
       <c r="E6" t="n">
-        <v>28499.66754439027</v>
+        <v>308942.1891532925</v>
       </c>
       <c r="F6" t="n">
-        <v>353912.1293517452</v>
+        <v>308942.1891532927</v>
       </c>
       <c r="G6" t="n">
-        <v>353912.1293517454</v>
+        <v>44381.73722084668</v>
       </c>
       <c r="H6" t="n">
-        <v>353912.1293517453</v>
+        <v>354224.7706806665</v>
       </c>
       <c r="I6" t="n">
-        <v>353912.1293517452</v>
+        <v>354224.7706806664</v>
       </c>
       <c r="J6" t="n">
-        <v>186306.9515417628</v>
+        <v>186619.592870684</v>
       </c>
       <c r="K6" t="n">
-        <v>353912.1293517452</v>
+        <v>354224.7706806666</v>
       </c>
       <c r="L6" t="n">
-        <v>305618.1593435543</v>
+        <v>305930.8006724757</v>
       </c>
       <c r="M6" t="n">
-        <v>268857.1014162335</v>
+        <v>354224.7706806665</v>
       </c>
       <c r="N6" t="n">
-        <v>353912.1293517453</v>
+        <v>354224.7706806666</v>
       </c>
       <c r="O6" t="n">
-        <v>353912.1293517453</v>
+        <v>272088.9400852154</v>
       </c>
       <c r="P6" t="n">
-        <v>353912.1293517453</v>
+        <v>354224.7706806666</v>
       </c>
     </row>
   </sheetData>
@@ -26740,16 +26740,16 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,37 +26789,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>831.401455402293</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>831.401455402293</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26962,19 +26962,19 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>155.7118084757591</v>
+      </c>
+      <c r="E3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="D3" t="n">
-        <v>155.711808475759</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>278.1987997483754</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27041,16 +27041,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>98.65494863722142</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>87.93981210443249</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>151.5290409520617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>252.0809822640032</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27782,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>89.82535797284095</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
@@ -27830,13 +27830,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>115.3258519193759</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>273.4041678244985</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>277.2566436803251</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28067,13 +28067,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>94.0442761581327</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31293,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31314,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31363,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31375,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31469,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31478,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>609.6478166837917</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157699</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>549.9198891312099</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34783,13 +34783,13 @@
         <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>313.3230609822</v>
+        <v>352.6335057535154</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
@@ -34798,7 +34798,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>522.015880398027</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>418.4229873015965</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35108,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>478.3061046004584</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937516</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>407.3236446867654</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
